--- a/owlcms/src/main/resources/agegroups/ES-AgeGroups_es_ES.xlsx
+++ b/owlcms/src/main/resources/agegroups/ES-AgeGroups_es_ES.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\agegroups\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C8555-AA81-4451-A479-44E61CD275C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="2640" yWindow="2925" windowWidth="23985" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AgeGroups" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="AgeGroups" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,203 +34,175 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="44">
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">championshipName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#bodyweight categories or each age group (bodyweight category code followed by optional qualifying total, example: 45 80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MASTERS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YTH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IWF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFAULT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M85</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="43">
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>championshipName</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>#bodyweight categories or each age group (bodyweight category code followed by optional qualifying total, example: 45 80)</t>
+  </si>
+  <si>
+    <t>U15</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>U16</t>
+  </si>
+  <si>
+    <t>U17</t>
+  </si>
+  <si>
+    <t>U18</t>
+  </si>
+  <si>
+    <t>W35</t>
+  </si>
+  <si>
+    <t>MASTERS</t>
+  </si>
+  <si>
+    <t>W40</t>
+  </si>
+  <si>
+    <t>W45</t>
+  </si>
+  <si>
+    <t>W50</t>
+  </si>
+  <si>
+    <t>W55</t>
+  </si>
+  <si>
+    <t>W60</t>
+  </si>
+  <si>
+    <t>W65</t>
+  </si>
+  <si>
+    <t>W70</t>
+  </si>
+  <si>
+    <t>W75</t>
+  </si>
+  <si>
+    <t>W80</t>
+  </si>
+  <si>
+    <t>W85</t>
+  </si>
+  <si>
+    <t>YTH</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>M35</t>
+  </si>
+  <si>
+    <t>M40</t>
+  </si>
+  <si>
+    <t>M45</t>
+  </si>
+  <si>
+    <t>M50</t>
+  </si>
+  <si>
+    <t>M55</t>
+  </si>
+  <si>
+    <t>M60</t>
+  </si>
+  <si>
+    <t>M65</t>
+  </si>
+  <si>
+    <t>M70</t>
+  </si>
+  <si>
+    <t>M75</t>
+  </si>
+  <si>
+    <t>M80</t>
+  </si>
+  <si>
+    <t>M85</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -235,120 +221,60 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -407,62 +333,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285f4"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ea4335"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="fbbc04"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34a853"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="ff6d01"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46bdc6"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -492,7 +434,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -516,7 +458,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -576,31 +518,30 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.71"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -622,24 +563,24 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -652,52 +593,52 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="5">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" s="7" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="F2" s="5">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="2" t="n">
+      <c r="I2" s="2">
         <v>40</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="J2" s="2">
         <v>45</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K2" s="2">
         <v>49</v>
       </c>
-      <c r="L2" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M2" s="2" t="n">
+      <c r="L2" s="2">
+        <v>55</v>
+      </c>
+      <c r="M2" s="2">
         <v>59</v>
       </c>
-      <c r="N2" s="2" t="n">
+      <c r="N2" s="2">
         <v>64</v>
       </c>
-      <c r="O2" s="2" t="n">
+      <c r="O2" s="2">
         <v>71</v>
       </c>
-      <c r="P2" s="2" t="n">
+      <c r="P2" s="2">
         <v>76</v>
       </c>
-      <c r="Q2" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R2" s="2" t="n">
+      <c r="Q2" s="2">
+        <v>81</v>
+      </c>
+      <c r="R2" s="2">
         <v>999</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -710,52 +651,52 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="n">
+      <c r="E3" s="5">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="n">
+      <c r="F3" s="5">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G3" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2" t="n">
+      <c r="I3" s="2">
         <v>40</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2">
         <v>45</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="2">
         <v>49</v>
       </c>
-      <c r="L3" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M3" s="2" t="n">
+      <c r="L3" s="2">
+        <v>55</v>
+      </c>
+      <c r="M3" s="2">
         <v>59</v>
       </c>
-      <c r="N3" s="2" t="n">
+      <c r="N3" s="2">
         <v>64</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="2">
         <v>71</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="2">
         <v>76</v>
       </c>
-      <c r="Q3" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R3" s="2" t="n">
+      <c r="Q3" s="2">
+        <v>81</v>
+      </c>
+      <c r="R3" s="2">
         <v>999</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -768,110 +709,110 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="5">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="5">
         <v>17</v>
       </c>
-      <c r="G4" s="7" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="G4" s="6" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2" t="n">
+      <c r="I4" s="2">
         <v>40</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="2">
         <v>45</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="2">
         <v>49</v>
       </c>
-      <c r="L4" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M4" s="2" t="n">
+      <c r="L4" s="2">
+        <v>55</v>
+      </c>
+      <c r="M4" s="2">
         <v>59</v>
       </c>
-      <c r="N4" s="2" t="n">
+      <c r="N4" s="2">
         <v>64</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="2">
         <v>71</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="2">
         <v>76</v>
       </c>
-      <c r="Q4" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R4" s="2" t="n">
+      <c r="Q4" s="2">
+        <v>81</v>
+      </c>
+      <c r="R4" s="2">
         <v>999</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:21" s="10" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="8">
         <v>13</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="8">
         <v>18</v>
       </c>
-      <c r="G5" s="10" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8" t="n">
+      <c r="G5" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7">
         <v>40</v>
       </c>
-      <c r="J5" s="8" t="n">
+      <c r="J5" s="7">
         <v>45</v>
       </c>
-      <c r="K5" s="8" t="n">
+      <c r="K5" s="7">
         <v>49</v>
       </c>
-      <c r="L5" s="8" t="n">
-        <v>55</v>
-      </c>
-      <c r="M5" s="8" t="n">
+      <c r="L5" s="7">
+        <v>55</v>
+      </c>
+      <c r="M5" s="7">
         <v>59</v>
       </c>
-      <c r="N5" s="8" t="n">
+      <c r="N5" s="7">
         <v>64</v>
       </c>
-      <c r="O5" s="8" t="n">
+      <c r="O5" s="7">
         <v>71</v>
       </c>
-      <c r="P5" s="8" t="n">
+      <c r="P5" s="7">
         <v>76</v>
       </c>
-      <c r="Q5" s="8" t="n">
-        <v>81</v>
-      </c>
-      <c r="R5" s="8" t="n">
-        <v>999</v>
-      </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="Q5" s="7">
+        <v>81</v>
+      </c>
+      <c r="R5" s="7">
+        <v>999</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -884,52 +825,52 @@
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="5">
         <v>35</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="5">
         <v>39</v>
       </c>
-      <c r="G6" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G6" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="2">
         <v>45</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="2">
         <v>49</v>
       </c>
-      <c r="L6" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M6" s="2" t="n">
+      <c r="L6" s="2">
+        <v>55</v>
+      </c>
+      <c r="M6" s="2">
         <v>59</v>
       </c>
-      <c r="N6" s="2" t="n">
+      <c r="N6" s="2">
         <v>64</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="2">
         <v>71</v>
       </c>
-      <c r="P6" s="2" t="n">
+      <c r="P6" s="2">
         <v>76</v>
       </c>
-      <c r="Q6" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R6" s="2" t="n">
+      <c r="Q6" s="2">
+        <v>81</v>
+      </c>
+      <c r="R6" s="2">
         <v>87</v>
       </c>
-      <c r="S6" s="2" t="n">
+      <c r="S6" s="2">
         <v>999</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:21" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -942,52 +883,52 @@
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="5">
         <v>40</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="5">
         <v>44</v>
       </c>
-      <c r="G7" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G7" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2">
         <v>45</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="2">
         <v>49</v>
       </c>
-      <c r="L7" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M7" s="2" t="n">
+      <c r="L7" s="2">
+        <v>55</v>
+      </c>
+      <c r="M7" s="2">
         <v>59</v>
       </c>
-      <c r="N7" s="2" t="n">
+      <c r="N7" s="2">
         <v>64</v>
       </c>
-      <c r="O7" s="2" t="n">
+      <c r="O7" s="2">
         <v>71</v>
       </c>
-      <c r="P7" s="2" t="n">
+      <c r="P7" s="2">
         <v>76</v>
       </c>
-      <c r="Q7" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R7" s="2" t="n">
+      <c r="Q7" s="2">
+        <v>81</v>
+      </c>
+      <c r="R7" s="2">
         <v>87</v>
       </c>
-      <c r="S7" s="2" t="n">
+      <c r="S7" s="2">
         <v>999</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:21" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1000,52 +941,52 @@
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="5">
         <v>45</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="5">
         <v>49</v>
       </c>
-      <c r="G8" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G8" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="2">
         <v>45</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="2">
         <v>49</v>
       </c>
-      <c r="L8" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M8" s="2" t="n">
+      <c r="L8" s="2">
+        <v>55</v>
+      </c>
+      <c r="M8" s="2">
         <v>59</v>
       </c>
-      <c r="N8" s="2" t="n">
+      <c r="N8" s="2">
         <v>64</v>
       </c>
-      <c r="O8" s="2" t="n">
+      <c r="O8" s="2">
         <v>71</v>
       </c>
-      <c r="P8" s="2" t="n">
+      <c r="P8" s="2">
         <v>76</v>
       </c>
-      <c r="Q8" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R8" s="2" t="n">
+      <c r="Q8" s="2">
+        <v>81</v>
+      </c>
+      <c r="R8" s="2">
         <v>87</v>
       </c>
-      <c r="S8" s="2" t="n">
+      <c r="S8" s="2">
         <v>999</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:21" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1058,52 +999,52 @@
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="5">
         <v>50</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="5">
         <v>54</v>
       </c>
-      <c r="G9" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G9" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="2">
         <v>45</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="2">
         <v>49</v>
       </c>
-      <c r="L9" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M9" s="2" t="n">
+      <c r="L9" s="2">
+        <v>55</v>
+      </c>
+      <c r="M9" s="2">
         <v>59</v>
       </c>
-      <c r="N9" s="2" t="n">
+      <c r="N9" s="2">
         <v>64</v>
       </c>
-      <c r="O9" s="2" t="n">
+      <c r="O9" s="2">
         <v>71</v>
       </c>
-      <c r="P9" s="2" t="n">
+      <c r="P9" s="2">
         <v>76</v>
       </c>
-      <c r="Q9" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R9" s="2" t="n">
+      <c r="Q9" s="2">
+        <v>81</v>
+      </c>
+      <c r="R9" s="2">
         <v>87</v>
       </c>
-      <c r="S9" s="2" t="n">
+      <c r="S9" s="2">
         <v>999</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:21" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1116,52 +1057,52 @@
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="6" t="n">
-        <v>55</v>
-      </c>
-      <c r="F10" s="6" t="n">
+      <c r="E10" s="5">
+        <v>55</v>
+      </c>
+      <c r="F10" s="5">
         <v>59</v>
       </c>
-      <c r="G10" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G10" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="2">
         <v>45</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="2">
         <v>49</v>
       </c>
-      <c r="L10" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M10" s="2" t="n">
+      <c r="L10" s="2">
+        <v>55</v>
+      </c>
+      <c r="M10" s="2">
         <v>59</v>
       </c>
-      <c r="N10" s="2" t="n">
+      <c r="N10" s="2">
         <v>64</v>
       </c>
-      <c r="O10" s="2" t="n">
+      <c r="O10" s="2">
         <v>71</v>
       </c>
-      <c r="P10" s="2" t="n">
+      <c r="P10" s="2">
         <v>76</v>
       </c>
-      <c r="Q10" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R10" s="2" t="n">
+      <c r="Q10" s="2">
+        <v>81</v>
+      </c>
+      <c r="R10" s="2">
         <v>87</v>
       </c>
-      <c r="S10" s="2" t="n">
+      <c r="S10" s="2">
         <v>999</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:21" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1174,52 +1115,52 @@
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="6" t="n">
+      <c r="E11" s="5">
         <v>60</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="5">
         <v>64</v>
       </c>
-      <c r="G11" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G11" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="2">
         <v>45</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="2">
         <v>49</v>
       </c>
-      <c r="L11" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M11" s="2" t="n">
+      <c r="L11" s="2">
+        <v>55</v>
+      </c>
+      <c r="M11" s="2">
         <v>59</v>
       </c>
-      <c r="N11" s="2" t="n">
+      <c r="N11" s="2">
         <v>64</v>
       </c>
-      <c r="O11" s="2" t="n">
+      <c r="O11" s="2">
         <v>71</v>
       </c>
-      <c r="P11" s="2" t="n">
+      <c r="P11" s="2">
         <v>76</v>
       </c>
-      <c r="Q11" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R11" s="2" t="n">
+      <c r="Q11" s="2">
+        <v>81</v>
+      </c>
+      <c r="R11" s="2">
         <v>87</v>
       </c>
-      <c r="S11" s="2" t="n">
+      <c r="S11" s="2">
         <v>999</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:21" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1232,52 +1173,52 @@
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6" t="n">
+      <c r="E12" s="5">
         <v>65</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="5">
         <v>69</v>
       </c>
-      <c r="G12" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G12" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="2">
         <v>45</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="2">
         <v>49</v>
       </c>
-      <c r="L12" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M12" s="2" t="n">
+      <c r="L12" s="2">
+        <v>55</v>
+      </c>
+      <c r="M12" s="2">
         <v>59</v>
       </c>
-      <c r="N12" s="2" t="n">
+      <c r="N12" s="2">
         <v>64</v>
       </c>
-      <c r="O12" s="2" t="n">
+      <c r="O12" s="2">
         <v>71</v>
       </c>
-      <c r="P12" s="2" t="n">
+      <c r="P12" s="2">
         <v>76</v>
       </c>
-      <c r="Q12" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R12" s="2" t="n">
+      <c r="Q12" s="2">
+        <v>81</v>
+      </c>
+      <c r="R12" s="2">
         <v>87</v>
       </c>
-      <c r="S12" s="2" t="n">
+      <c r="S12" s="2">
         <v>999</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:21" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1290,52 +1231,52 @@
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="6" t="n">
+      <c r="E13" s="5">
         <v>70</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="5">
         <v>74</v>
       </c>
-      <c r="G13" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G13" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="2">
         <v>45</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="K13" s="2">
         <v>49</v>
       </c>
-      <c r="L13" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M13" s="2" t="n">
+      <c r="L13" s="2">
+        <v>55</v>
+      </c>
+      <c r="M13" s="2">
         <v>59</v>
       </c>
-      <c r="N13" s="2" t="n">
+      <c r="N13" s="2">
         <v>64</v>
       </c>
-      <c r="O13" s="2" t="n">
+      <c r="O13" s="2">
         <v>71</v>
       </c>
-      <c r="P13" s="2" t="n">
+      <c r="P13" s="2">
         <v>76</v>
       </c>
-      <c r="Q13" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R13" s="2" t="n">
+      <c r="Q13" s="2">
+        <v>81</v>
+      </c>
+      <c r="R13" s="2">
         <v>87</v>
       </c>
-      <c r="S13" s="2" t="n">
+      <c r="S13" s="2">
         <v>999</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:21" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1348,52 +1289,52 @@
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="6" t="n">
+      <c r="E14" s="5">
         <v>75</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="5">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G14" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="2">
         <v>45</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="K14" s="2">
         <v>49</v>
       </c>
-      <c r="L14" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M14" s="2" t="n">
+      <c r="L14" s="2">
+        <v>55</v>
+      </c>
+      <c r="M14" s="2">
         <v>59</v>
       </c>
-      <c r="N14" s="2" t="n">
+      <c r="N14" s="2">
         <v>64</v>
       </c>
-      <c r="O14" s="2" t="n">
+      <c r="O14" s="2">
         <v>71</v>
       </c>
-      <c r="P14" s="2" t="n">
+      <c r="P14" s="2">
         <v>76</v>
       </c>
-      <c r="Q14" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R14" s="2" t="n">
+      <c r="Q14" s="2">
+        <v>81</v>
+      </c>
+      <c r="R14" s="2">
         <v>87</v>
       </c>
-      <c r="S14" s="2" t="n">
+      <c r="S14" s="2">
         <v>999</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:21" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1406,110 +1347,110 @@
       <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="5">
         <v>80</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="5">
         <v>84</v>
       </c>
-      <c r="G15" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G15" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="2">
         <v>45</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="2">
         <v>49</v>
       </c>
-      <c r="L15" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M15" s="2" t="n">
+      <c r="L15" s="2">
+        <v>55</v>
+      </c>
+      <c r="M15" s="2">
         <v>59</v>
       </c>
-      <c r="N15" s="2" t="n">
+      <c r="N15" s="2">
         <v>64</v>
       </c>
-      <c r="O15" s="2" t="n">
+      <c r="O15" s="2">
         <v>71</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="2">
         <v>76</v>
       </c>
-      <c r="Q15" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R15" s="2" t="n">
+      <c r="Q15" s="2">
+        <v>81</v>
+      </c>
+      <c r="R15" s="2">
         <v>87</v>
       </c>
-      <c r="S15" s="2" t="n">
+      <c r="S15" s="2">
         <v>999</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" s="15" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="B16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="12">
         <v>85</v>
       </c>
-      <c r="F16" s="13" t="n">
-        <v>999</v>
-      </c>
-      <c r="G16" s="14" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12" t="n">
+      <c r="F16" s="12">
+        <v>999</v>
+      </c>
+      <c r="G16" s="13" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11">
         <v>45</v>
       </c>
-      <c r="K16" s="12" t="n">
+      <c r="K16" s="11">
         <v>49</v>
       </c>
-      <c r="L16" s="12" t="n">
-        <v>55</v>
-      </c>
-      <c r="M16" s="12" t="n">
+      <c r="L16" s="11">
+        <v>55</v>
+      </c>
+      <c r="M16" s="11">
         <v>59</v>
       </c>
-      <c r="N16" s="12" t="n">
+      <c r="N16" s="11">
         <v>64</v>
       </c>
-      <c r="O16" s="12" t="n">
+      <c r="O16" s="11">
         <v>71</v>
       </c>
-      <c r="P16" s="12" t="n">
+      <c r="P16" s="11">
         <v>76</v>
       </c>
-      <c r="Q16" s="12" t="n">
-        <v>81</v>
-      </c>
-      <c r="R16" s="12" t="n">
+      <c r="Q16" s="11">
+        <v>81</v>
+      </c>
+      <c r="R16" s="11">
         <v>87</v>
       </c>
-      <c r="S16" s="12" t="n">
-        <v>999</v>
-      </c>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="S16" s="11">
+        <v>999</v>
+      </c>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1517,235 +1458,235 @@
         <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="5">
         <v>13</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="5">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G17" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="2" t="n">
+      <c r="I17" s="2">
         <v>40</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="2">
         <v>45</v>
       </c>
-      <c r="K17" s="2" t="n">
+      <c r="K17" s="2">
         <v>49</v>
       </c>
-      <c r="L17" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M17" s="2" t="n">
+      <c r="L17" s="2">
+        <v>55</v>
+      </c>
+      <c r="M17" s="2">
         <v>59</v>
       </c>
-      <c r="N17" s="2" t="n">
+      <c r="N17" s="2">
         <v>64</v>
       </c>
-      <c r="O17" s="2" t="n">
+      <c r="O17" s="2">
         <v>71</v>
       </c>
-      <c r="P17" s="2" t="n">
+      <c r="P17" s="2">
         <v>76</v>
       </c>
-      <c r="Q17" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R17" s="2" t="n">
+      <c r="Q17" s="2">
+        <v>81</v>
+      </c>
+      <c r="R17" s="2">
         <v>999</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:21" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="F18" s="6" t="n">
+      <c r="E18" s="5">
+        <v>15</v>
+      </c>
+      <c r="F18" s="5">
         <v>20</v>
       </c>
-      <c r="G18" s="7" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="G18" s="6" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="2">
         <v>45</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="K18" s="2">
         <v>49</v>
       </c>
-      <c r="L18" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M18" s="2" t="n">
+      <c r="L18" s="2">
+        <v>55</v>
+      </c>
+      <c r="M18" s="2">
         <v>59</v>
       </c>
-      <c r="N18" s="2" t="n">
+      <c r="N18" s="2">
         <v>64</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="O18" s="2">
         <v>71</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="P18" s="2">
         <v>76</v>
       </c>
-      <c r="Q18" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R18" s="2" t="n">
+      <c r="Q18" s="2">
+        <v>81</v>
+      </c>
+      <c r="R18" s="2">
         <v>87</v>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="S18" s="2">
         <v>999</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:21" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="F19" s="6" t="n">
-        <v>999</v>
-      </c>
-      <c r="G19" s="7" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="E19" s="5">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5">
+        <v>999</v>
+      </c>
+      <c r="G19" s="6" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2" t="n">
+      <c r="J19" s="2">
         <v>45</v>
       </c>
-      <c r="K19" s="2" t="n">
+      <c r="K19" s="2">
         <v>49</v>
       </c>
-      <c r="L19" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M19" s="2" t="n">
+      <c r="L19" s="2">
+        <v>55</v>
+      </c>
+      <c r="M19" s="2">
         <v>59</v>
       </c>
-      <c r="N19" s="2" t="n">
+      <c r="N19" s="2">
         <v>64</v>
       </c>
-      <c r="O19" s="2" t="n">
+      <c r="O19" s="2">
         <v>71</v>
       </c>
-      <c r="P19" s="2" t="n">
+      <c r="P19" s="2">
         <v>76</v>
       </c>
-      <c r="Q19" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R19" s="2" t="n">
+      <c r="Q19" s="2">
+        <v>81</v>
+      </c>
+      <c r="R19" s="2">
         <v>87</v>
       </c>
-      <c r="S19" s="2" t="n">
+      <c r="S19" s="2">
         <v>999</v>
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:21" s="10" customFormat="1" ht="15">
+      <c r="A20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="9" t="n">
-        <v>999</v>
-      </c>
-      <c r="G20" s="10" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8">
+        <v>999</v>
+      </c>
+      <c r="G20" s="9" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H20" s="8" t="n">
+      <c r="H20" s="7">
         <v>35</v>
       </c>
-      <c r="I20" s="8" t="n">
+      <c r="I20" s="7">
         <v>40</v>
       </c>
-      <c r="J20" s="8" t="n">
+      <c r="J20" s="7">
         <v>45</v>
       </c>
-      <c r="K20" s="8" t="n">
+      <c r="K20" s="7">
         <v>49</v>
       </c>
-      <c r="L20" s="8" t="n">
-        <v>55</v>
-      </c>
-      <c r="M20" s="8" t="n">
+      <c r="L20" s="7">
+        <v>55</v>
+      </c>
+      <c r="M20" s="7">
         <v>59</v>
       </c>
-      <c r="N20" s="8" t="n">
+      <c r="N20" s="7">
         <v>64</v>
       </c>
-      <c r="O20" s="8" t="n">
+      <c r="O20" s="7">
         <v>71</v>
       </c>
-      <c r="P20" s="8" t="n">
+      <c r="P20" s="7">
         <v>76</v>
       </c>
-      <c r="Q20" s="8" t="n">
-        <v>81</v>
-      </c>
-      <c r="R20" s="8" t="n">
+      <c r="Q20" s="7">
+        <v>81</v>
+      </c>
+      <c r="R20" s="7">
         <v>87</v>
       </c>
-      <c r="S20" s="8" t="n">
-        <v>999</v>
-      </c>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S20" s="7">
+        <v>999</v>
+      </c>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+    </row>
+    <row r="21" spans="1:21" ht="15">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1756,54 +1697,54 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E21" s="5">
         <v>13</v>
       </c>
-      <c r="F21" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="G21" s="7" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="F21" s="5">
+        <v>15</v>
+      </c>
+      <c r="G21" s="6" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2" t="n">
+      <c r="K21" s="2">
         <v>49</v>
       </c>
-      <c r="L21" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M21" s="2" t="n">
+      <c r="L21" s="2">
+        <v>55</v>
+      </c>
+      <c r="M21" s="2">
         <v>61</v>
       </c>
-      <c r="N21" s="2" t="n">
+      <c r="N21" s="2">
         <v>67</v>
       </c>
-      <c r="O21" s="2" t="n">
+      <c r="O21" s="2">
         <v>73</v>
       </c>
-      <c r="P21" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q21" s="2" t="n">
+      <c r="P21" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="2">
         <v>89</v>
       </c>
-      <c r="R21" s="2" t="n">
+      <c r="R21" s="2">
         <v>96</v>
       </c>
-      <c r="S21" s="2" t="n">
+      <c r="S21" s="2">
         <v>102</v>
       </c>
-      <c r="T21" s="2" t="n">
+      <c r="T21" s="2">
         <v>999</v>
       </c>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:21" ht="15">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1814,54 +1755,54 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E22" s="5">
         <v>13</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="F22" s="5">
         <v>16</v>
       </c>
-      <c r="G22" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G22" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2" t="n">
+      <c r="K22" s="2">
         <v>49</v>
       </c>
-      <c r="L22" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M22" s="2" t="n">
+      <c r="L22" s="2">
+        <v>55</v>
+      </c>
+      <c r="M22" s="2">
         <v>61</v>
       </c>
-      <c r="N22" s="2" t="n">
+      <c r="N22" s="2">
         <v>67</v>
       </c>
-      <c r="O22" s="2" t="n">
+      <c r="O22" s="2">
         <v>73</v>
       </c>
-      <c r="P22" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q22" s="2" t="n">
+      <c r="P22" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q22" s="2">
         <v>89</v>
       </c>
-      <c r="R22" s="2" t="n">
+      <c r="R22" s="2">
         <v>96</v>
       </c>
-      <c r="S22" s="2" t="n">
+      <c r="S22" s="2">
         <v>102</v>
       </c>
-      <c r="T22" s="2" t="n">
+      <c r="T22" s="2">
         <v>999</v>
       </c>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:21" ht="15">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1872,115 +1813,115 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E23" s="5">
         <v>13</v>
       </c>
-      <c r="F23" s="6" t="n">
+      <c r="F23" s="5">
         <v>17</v>
       </c>
-      <c r="G23" s="7" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="G23" s="6" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2" t="n">
+      <c r="K23" s="2">
         <v>49</v>
       </c>
-      <c r="L23" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M23" s="2" t="n">
+      <c r="L23" s="2">
+        <v>55</v>
+      </c>
+      <c r="M23" s="2">
         <v>61</v>
       </c>
-      <c r="N23" s="2" t="n">
+      <c r="N23" s="2">
         <v>67</v>
       </c>
-      <c r="O23" s="2" t="n">
+      <c r="O23" s="2">
         <v>73</v>
       </c>
-      <c r="P23" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q23" s="2" t="n">
+      <c r="P23" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="2">
         <v>89</v>
       </c>
-      <c r="R23" s="2" t="n">
+      <c r="R23" s="2">
         <v>96</v>
       </c>
-      <c r="S23" s="2" t="n">
+      <c r="S23" s="2">
         <v>102</v>
       </c>
-      <c r="T23" s="2" t="n">
+      <c r="T23" s="2">
         <v>999</v>
       </c>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:21" s="10" customFormat="1" ht="15">
+      <c r="A24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="8">
+        <v>13</v>
+      </c>
+      <c r="F24" s="8">
+        <v>18</v>
+      </c>
+      <c r="G24" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7">
+        <v>49</v>
+      </c>
+      <c r="L24" s="7">
+        <v>55</v>
+      </c>
+      <c r="M24" s="7">
+        <v>61</v>
+      </c>
+      <c r="N24" s="7">
+        <v>67</v>
+      </c>
+      <c r="O24" s="7">
+        <v>73</v>
+      </c>
+      <c r="P24" s="7">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>89</v>
+      </c>
+      <c r="R24" s="7">
+        <v>96</v>
+      </c>
+      <c r="S24" s="7">
+        <v>102</v>
+      </c>
+      <c r="T24" s="7">
+        <v>999</v>
+      </c>
+      <c r="U24" s="7"/>
+    </row>
+    <row r="25" spans="1:21" ht="15">
+      <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="9" t="n">
-        <v>13</v>
-      </c>
-      <c r="F24" s="9" t="n">
-        <v>18</v>
-      </c>
-      <c r="G24" s="10" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8" t="n">
-        <v>49</v>
-      </c>
-      <c r="L24" s="8" t="n">
-        <v>55</v>
-      </c>
-      <c r="M24" s="8" t="n">
-        <v>61</v>
-      </c>
-      <c r="N24" s="8" t="n">
-        <v>67</v>
-      </c>
-      <c r="O24" s="8" t="n">
-        <v>73</v>
-      </c>
-      <c r="P24" s="8" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q24" s="8" t="n">
-        <v>89</v>
-      </c>
-      <c r="R24" s="8" t="n">
-        <v>96</v>
-      </c>
-      <c r="S24" s="8" t="n">
-        <v>102</v>
-      </c>
-      <c r="T24" s="8" t="n">
-        <v>999</v>
-      </c>
-      <c r="U24" s="8"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="B25" s="2" t="s">
         <v>15</v>
       </c>
@@ -1988,56 +1929,56 @@
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E25" s="5">
         <v>35</v>
       </c>
-      <c r="F25" s="6" t="n">
+      <c r="F25" s="5">
         <v>39</v>
       </c>
-      <c r="G25" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G25" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M25" s="2" t="n">
+      <c r="L25" s="2">
+        <v>55</v>
+      </c>
+      <c r="M25" s="2">
         <v>61</v>
       </c>
-      <c r="N25" s="2" t="n">
+      <c r="N25" s="2">
         <v>67</v>
       </c>
-      <c r="O25" s="2" t="n">
+      <c r="O25" s="2">
         <v>73</v>
       </c>
-      <c r="P25" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q25" s="2" t="n">
+      <c r="P25" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q25" s="2">
         <v>89</v>
       </c>
-      <c r="R25" s="2" t="n">
+      <c r="R25" s="2">
         <v>96</v>
       </c>
-      <c r="S25" s="2" t="n">
+      <c r="S25" s="2">
         <v>102</v>
       </c>
-      <c r="T25" s="2" t="n">
+      <c r="T25" s="2">
         <v>109</v>
       </c>
-      <c r="U25" s="2" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U25" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="15">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
@@ -2046,56 +1987,56 @@
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E26" s="5">
         <v>40</v>
       </c>
-      <c r="F26" s="6" t="n">
+      <c r="F26" s="5">
         <v>44</v>
       </c>
-      <c r="G26" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G26" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M26" s="2" t="n">
+      <c r="L26" s="2">
+        <v>55</v>
+      </c>
+      <c r="M26" s="2">
         <v>61</v>
       </c>
-      <c r="N26" s="2" t="n">
+      <c r="N26" s="2">
         <v>67</v>
       </c>
-      <c r="O26" s="2" t="n">
+      <c r="O26" s="2">
         <v>73</v>
       </c>
-      <c r="P26" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q26" s="2" t="n">
+      <c r="P26" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q26" s="2">
         <v>89</v>
       </c>
-      <c r="R26" s="2" t="n">
+      <c r="R26" s="2">
         <v>96</v>
       </c>
-      <c r="S26" s="2" t="n">
+      <c r="S26" s="2">
         <v>102</v>
       </c>
-      <c r="T26" s="2" t="n">
+      <c r="T26" s="2">
         <v>109</v>
       </c>
-      <c r="U26" s="2" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U26" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="15">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -2104,56 +2045,56 @@
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E27" s="5">
         <v>45</v>
       </c>
-      <c r="F27" s="6" t="n">
+      <c r="F27" s="5">
         <v>49</v>
       </c>
-      <c r="G27" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G27" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M27" s="2" t="n">
+      <c r="L27" s="2">
+        <v>55</v>
+      </c>
+      <c r="M27" s="2">
         <v>61</v>
       </c>
-      <c r="N27" s="2" t="n">
+      <c r="N27" s="2">
         <v>67</v>
       </c>
-      <c r="O27" s="2" t="n">
+      <c r="O27" s="2">
         <v>73</v>
       </c>
-      <c r="P27" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q27" s="2" t="n">
+      <c r="P27" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q27" s="2">
         <v>89</v>
       </c>
-      <c r="R27" s="2" t="n">
+      <c r="R27" s="2">
         <v>96</v>
       </c>
-      <c r="S27" s="2" t="n">
+      <c r="S27" s="2">
         <v>102</v>
       </c>
-      <c r="T27" s="2" t="n">
+      <c r="T27" s="2">
         <v>109</v>
       </c>
-      <c r="U27" s="2" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U27" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
@@ -2162,56 +2103,56 @@
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E28" s="5">
         <v>50</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="5">
         <v>54</v>
       </c>
-      <c r="G28" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G28" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M28" s="2" t="n">
+      <c r="L28" s="2">
+        <v>55</v>
+      </c>
+      <c r="M28" s="2">
         <v>61</v>
       </c>
-      <c r="N28" s="2" t="n">
+      <c r="N28" s="2">
         <v>67</v>
       </c>
-      <c r="O28" s="2" t="n">
+      <c r="O28" s="2">
         <v>73</v>
       </c>
-      <c r="P28" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q28" s="2" t="n">
+      <c r="P28" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="2">
         <v>89</v>
       </c>
-      <c r="R28" s="2" t="n">
+      <c r="R28" s="2">
         <v>96</v>
       </c>
-      <c r="S28" s="2" t="n">
+      <c r="S28" s="2">
         <v>102</v>
       </c>
-      <c r="T28" s="2" t="n">
+      <c r="T28" s="2">
         <v>109</v>
       </c>
-      <c r="U28" s="2" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U28" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>15</v>
@@ -2220,56 +2161,56 @@
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>55</v>
-      </c>
-      <c r="F29" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E29" s="5">
+        <v>55</v>
+      </c>
+      <c r="F29" s="5">
         <v>59</v>
       </c>
-      <c r="G29" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G29" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M29" s="2" t="n">
+      <c r="L29" s="2">
+        <v>55</v>
+      </c>
+      <c r="M29" s="2">
         <v>61</v>
       </c>
-      <c r="N29" s="2" t="n">
+      <c r="N29" s="2">
         <v>67</v>
       </c>
-      <c r="O29" s="2" t="n">
+      <c r="O29" s="2">
         <v>73</v>
       </c>
-      <c r="P29" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q29" s="2" t="n">
+      <c r="P29" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q29" s="2">
         <v>89</v>
       </c>
-      <c r="R29" s="2" t="n">
+      <c r="R29" s="2">
         <v>96</v>
       </c>
-      <c r="S29" s="2" t="n">
+      <c r="S29" s="2">
         <v>102</v>
       </c>
-      <c r="T29" s="2" t="n">
+      <c r="T29" s="2">
         <v>109</v>
       </c>
-      <c r="U29" s="2" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U29" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
@@ -2278,56 +2219,56 @@
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E30" s="5">
         <v>60</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F30" s="5">
         <v>64</v>
       </c>
-      <c r="G30" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G30" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M30" s="2" t="n">
+      <c r="L30" s="2">
+        <v>55</v>
+      </c>
+      <c r="M30" s="2">
         <v>61</v>
       </c>
-      <c r="N30" s="2" t="n">
+      <c r="N30" s="2">
         <v>67</v>
       </c>
-      <c r="O30" s="2" t="n">
+      <c r="O30" s="2">
         <v>73</v>
       </c>
-      <c r="P30" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q30" s="2" t="n">
+      <c r="P30" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q30" s="2">
         <v>89</v>
       </c>
-      <c r="R30" s="2" t="n">
+      <c r="R30" s="2">
         <v>96</v>
       </c>
-      <c r="S30" s="2" t="n">
+      <c r="S30" s="2">
         <v>102</v>
       </c>
-      <c r="T30" s="2" t="n">
+      <c r="T30" s="2">
         <v>109</v>
       </c>
-      <c r="U30" s="2" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U30" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>15</v>
@@ -2336,56 +2277,56 @@
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E31" s="5">
         <v>65</v>
       </c>
-      <c r="F31" s="6" t="n">
+      <c r="F31" s="5">
         <v>69</v>
       </c>
-      <c r="G31" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G31" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M31" s="2" t="n">
+      <c r="L31" s="2">
+        <v>55</v>
+      </c>
+      <c r="M31" s="2">
         <v>61</v>
       </c>
-      <c r="N31" s="2" t="n">
+      <c r="N31" s="2">
         <v>67</v>
       </c>
-      <c r="O31" s="2" t="n">
+      <c r="O31" s="2">
         <v>73</v>
       </c>
-      <c r="P31" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q31" s="2" t="n">
+      <c r="P31" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q31" s="2">
         <v>89</v>
       </c>
-      <c r="R31" s="2" t="n">
+      <c r="R31" s="2">
         <v>96</v>
       </c>
-      <c r="S31" s="2" t="n">
+      <c r="S31" s="2">
         <v>102</v>
       </c>
-      <c r="T31" s="2" t="n">
+      <c r="T31" s="2">
         <v>109</v>
       </c>
-      <c r="U31" s="2" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U31" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="15">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>15</v>
@@ -2394,56 +2335,56 @@
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" s="5">
         <v>70</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F32" s="5">
         <v>74</v>
       </c>
-      <c r="G32" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G32" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M32" s="2" t="n">
+      <c r="L32" s="2">
+        <v>55</v>
+      </c>
+      <c r="M32" s="2">
         <v>61</v>
       </c>
-      <c r="N32" s="2" t="n">
+      <c r="N32" s="2">
         <v>67</v>
       </c>
-      <c r="O32" s="2" t="n">
+      <c r="O32" s="2">
         <v>73</v>
       </c>
-      <c r="P32" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q32" s="2" t="n">
+      <c r="P32" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q32" s="2">
         <v>89</v>
       </c>
-      <c r="R32" s="2" t="n">
+      <c r="R32" s="2">
         <v>96</v>
       </c>
-      <c r="S32" s="2" t="n">
+      <c r="S32" s="2">
         <v>102</v>
       </c>
-      <c r="T32" s="2" t="n">
+      <c r="T32" s="2">
         <v>109</v>
       </c>
-      <c r="U32" s="2" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U32" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="15">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>15</v>
@@ -2452,56 +2393,56 @@
         <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E33" s="5">
         <v>75</v>
       </c>
-      <c r="F33" s="6" t="n">
+      <c r="F33" s="5">
         <v>79</v>
       </c>
-      <c r="G33" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G33" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M33" s="2" t="n">
+      <c r="L33" s="2">
+        <v>55</v>
+      </c>
+      <c r="M33" s="2">
         <v>61</v>
       </c>
-      <c r="N33" s="2" t="n">
+      <c r="N33" s="2">
         <v>67</v>
       </c>
-      <c r="O33" s="2" t="n">
+      <c r="O33" s="2">
         <v>73</v>
       </c>
-      <c r="P33" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q33" s="2" t="n">
+      <c r="P33" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q33" s="2">
         <v>89</v>
       </c>
-      <c r="R33" s="2" t="n">
+      <c r="R33" s="2">
         <v>96</v>
       </c>
-      <c r="S33" s="2" t="n">
+      <c r="S33" s="2">
         <v>102</v>
       </c>
-      <c r="T33" s="2" t="n">
+      <c r="T33" s="2">
         <v>109</v>
       </c>
-      <c r="U33" s="2" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U33" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="15">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>15</v>
@@ -2510,112 +2451,112 @@
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E34" s="5">
         <v>80</v>
       </c>
-      <c r="F34" s="6" t="n">
+      <c r="F34" s="5">
         <v>84</v>
       </c>
-      <c r="G34" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G34" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M34" s="2" t="n">
+      <c r="L34" s="2">
+        <v>55</v>
+      </c>
+      <c r="M34" s="2">
         <v>61</v>
       </c>
-      <c r="N34" s="2" t="n">
+      <c r="N34" s="2">
         <v>67</v>
       </c>
-      <c r="O34" s="2" t="n">
+      <c r="O34" s="2">
         <v>73</v>
       </c>
-      <c r="P34" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q34" s="2" t="n">
+      <c r="P34" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q34" s="2">
         <v>89</v>
       </c>
-      <c r="R34" s="2" t="n">
+      <c r="R34" s="2">
         <v>96</v>
       </c>
-      <c r="S34" s="2" t="n">
+      <c r="S34" s="2">
         <v>102</v>
       </c>
-      <c r="T34" s="2" t="n">
+      <c r="T34" s="2">
         <v>109</v>
       </c>
-      <c r="U34" s="2" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="35" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="9" t="n">
+      <c r="U34" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="10" customFormat="1" ht="15">
+      <c r="A35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="8">
         <v>85</v>
       </c>
-      <c r="F35" s="9" t="n">
-        <v>999</v>
-      </c>
-      <c r="G35" s="10" t="b">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8" t="n">
-        <v>55</v>
-      </c>
-      <c r="M35" s="8" t="n">
+      <c r="F35" s="8">
+        <v>999</v>
+      </c>
+      <c r="G35" s="9" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7">
+        <v>55</v>
+      </c>
+      <c r="M35" s="7">
         <v>61</v>
       </c>
-      <c r="N35" s="8" t="n">
+      <c r="N35" s="7">
         <v>67</v>
       </c>
-      <c r="O35" s="8" t="n">
+      <c r="O35" s="7">
         <v>73</v>
       </c>
-      <c r="P35" s="8" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q35" s="8" t="n">
+      <c r="P35" s="7">
+        <v>81</v>
+      </c>
+      <c r="Q35" s="7">
         <v>89</v>
       </c>
-      <c r="R35" s="8" t="n">
+      <c r="R35" s="7">
         <v>96</v>
       </c>
-      <c r="S35" s="8" t="n">
+      <c r="S35" s="7">
         <v>102</v>
       </c>
-      <c r="T35" s="8" t="n">
+      <c r="T35" s="7">
         <v>109</v>
       </c>
-      <c r="U35" s="8" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U35" s="7">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="15">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
@@ -2623,235 +2564,235 @@
         <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E36" s="5">
         <v>13</v>
       </c>
-      <c r="F36" s="6" t="n">
+      <c r="F36" s="5">
         <v>17</v>
       </c>
-      <c r="G36" s="7" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="G36" s="6" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2" t="n">
+      <c r="K36" s="2">
         <v>49</v>
       </c>
-      <c r="L36" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M36" s="2" t="n">
+      <c r="L36" s="2">
+        <v>55</v>
+      </c>
+      <c r="M36" s="2">
         <v>61</v>
       </c>
-      <c r="N36" s="2" t="n">
+      <c r="N36" s="2">
         <v>67</v>
       </c>
-      <c r="O36" s="2" t="n">
+      <c r="O36" s="2">
         <v>73</v>
       </c>
-      <c r="P36" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q36" s="2" t="n">
+      <c r="P36" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q36" s="2">
         <v>89</v>
       </c>
-      <c r="R36" s="2" t="n">
+      <c r="R36" s="2">
         <v>96</v>
       </c>
-      <c r="S36" s="2" t="n">
+      <c r="S36" s="2">
         <v>102</v>
       </c>
-      <c r="T36" s="2" t="n">
+      <c r="T36" s="2">
         <v>999</v>
       </c>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:21" ht="15">
       <c r="A37" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="F37" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="E37" s="5">
+        <v>15</v>
+      </c>
+      <c r="F37" s="5">
         <v>20</v>
       </c>
-      <c r="G37" s="7" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="G37" s="6" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M37" s="2" t="n">
+      <c r="L37" s="2">
+        <v>55</v>
+      </c>
+      <c r="M37" s="2">
         <v>61</v>
       </c>
-      <c r="N37" s="2" t="n">
+      <c r="N37" s="2">
         <v>67</v>
       </c>
-      <c r="O37" s="2" t="n">
+      <c r="O37" s="2">
         <v>73</v>
       </c>
-      <c r="P37" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q37" s="2" t="n">
+      <c r="P37" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q37" s="2">
         <v>89</v>
       </c>
-      <c r="R37" s="2" t="n">
+      <c r="R37" s="2">
         <v>96</v>
       </c>
-      <c r="S37" s="2" t="n">
+      <c r="S37" s="2">
         <v>102</v>
       </c>
-      <c r="T37" s="2" t="n">
+      <c r="T37" s="2">
         <v>109</v>
       </c>
-      <c r="U37" s="2" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U37" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="15">
       <c r="A38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="6" t="n">
-        <v>15</v>
-      </c>
-      <c r="F38" s="6" t="n">
-        <v>999</v>
-      </c>
-      <c r="G38" s="7" t="b">
-        <f aca="false">TRUE()</f>
+        <v>31</v>
+      </c>
+      <c r="E38" s="5">
+        <v>15</v>
+      </c>
+      <c r="F38" s="5">
+        <v>999</v>
+      </c>
+      <c r="G38" s="6" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M38" s="2" t="n">
+      <c r="L38" s="2">
+        <v>55</v>
+      </c>
+      <c r="M38" s="2">
         <v>61</v>
       </c>
-      <c r="N38" s="2" t="n">
+      <c r="N38" s="2">
         <v>67</v>
       </c>
-      <c r="O38" s="2" t="n">
+      <c r="O38" s="2">
         <v>73</v>
       </c>
-      <c r="P38" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q38" s="2" t="n">
+      <c r="P38" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q38" s="2">
         <v>89</v>
       </c>
-      <c r="R38" s="2" t="n">
+      <c r="R38" s="2">
         <v>96</v>
       </c>
-      <c r="S38" s="2" t="n">
+      <c r="S38" s="2">
         <v>102</v>
       </c>
-      <c r="T38" s="2" t="n">
+      <c r="T38" s="2">
         <v>109</v>
       </c>
-      <c r="U38" s="2" t="n">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U38" s="2">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15">
       <c r="A39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="6" t="n">
-        <v>999</v>
-      </c>
-      <c r="G39" s="7" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="E39" s="5">
+        <v>0</v>
+      </c>
+      <c r="F39" s="5">
+        <v>999</v>
+      </c>
+      <c r="G39" s="6" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H39" s="2" t="n">
+      <c r="H39" s="2">
         <v>35</v>
       </c>
-      <c r="I39" s="2" t="n">
+      <c r="I39" s="2">
         <v>40</v>
       </c>
-      <c r="J39" s="2" t="n">
+      <c r="J39" s="2">
         <v>45</v>
       </c>
-      <c r="K39" s="2" t="n">
+      <c r="K39" s="2">
         <v>49</v>
       </c>
-      <c r="L39" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="M39" s="2" t="n">
+      <c r="L39" s="2">
+        <v>55</v>
+      </c>
+      <c r="M39" s="2">
         <v>61</v>
       </c>
-      <c r="N39" s="2" t="n">
+      <c r="N39" s="2">
         <v>67</v>
       </c>
-      <c r="O39" s="2" t="n">
+      <c r="O39" s="2">
         <v>73</v>
       </c>
-      <c r="P39" s="2" t="n">
-        <v>81</v>
-      </c>
-      <c r="Q39" s="2" t="n">
+      <c r="P39" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q39" s="2">
         <v>89</v>
       </c>
-      <c r="R39" s="2" t="n">
+      <c r="R39" s="2">
         <v>96</v>
       </c>
-      <c r="S39" s="2" t="n">
+      <c r="S39" s="2">
         <v>102</v>
       </c>
-      <c r="T39" s="2" t="n">
+      <c r="T39" s="2">
         <v>109</v>
       </c>
-      <c r="U39" s="2" t="n">
+      <c r="U39" s="2">
         <v>999</v>
       </c>
     </row>
@@ -2859,12 +2800,7 @@
   <mergeCells count="1">
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/owlcms/src/main/resources/agegroups/ES-AgeGroups_es_ES.xlsx
+++ b/owlcms/src/main/resources/agegroups/ES-AgeGroups_es_ES.xlsx
@@ -1,31 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\agegroups\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49C8555-AA81-4451-A479-44E61CD275C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2925" windowWidth="23985" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="AgeGroups" sheetId="1" r:id="rId1"/>
+    <sheet name="AgeGroups" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -34,175 +20,203 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="43">
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>championshipName</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>#bodyweight categories or each age group (bodyweight category code followed by optional qualifying total, example: 45 80)</t>
-  </si>
-  <si>
-    <t>U15</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>U16</t>
-  </si>
-  <si>
-    <t>U17</t>
-  </si>
-  <si>
-    <t>U18</t>
-  </si>
-  <si>
-    <t>W35</t>
-  </si>
-  <si>
-    <t>MASTERS</t>
-  </si>
-  <si>
-    <t>W40</t>
-  </si>
-  <si>
-    <t>W45</t>
-  </si>
-  <si>
-    <t>W50</t>
-  </si>
-  <si>
-    <t>W55</t>
-  </si>
-  <si>
-    <t>W60</t>
-  </si>
-  <si>
-    <t>W65</t>
-  </si>
-  <si>
-    <t>W70</t>
-  </si>
-  <si>
-    <t>W75</t>
-  </si>
-  <si>
-    <t>W80</t>
-  </si>
-  <si>
-    <t>W85</t>
-  </si>
-  <si>
-    <t>YTH</t>
-  </si>
-  <si>
-    <t>JR</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>M35</t>
-  </si>
-  <si>
-    <t>M40</t>
-  </si>
-  <si>
-    <t>M45</t>
-  </si>
-  <si>
-    <t>M50</t>
-  </si>
-  <si>
-    <t>M55</t>
-  </si>
-  <si>
-    <t>M60</t>
-  </si>
-  <si>
-    <t>M65</t>
-  </si>
-  <si>
-    <t>M70</t>
-  </si>
-  <si>
-    <t>M75</t>
-  </si>
-  <si>
-    <t>M80</t>
-  </si>
-  <si>
-    <t>M85</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="44">
+  <si>
+    <t xml:space="preserve">code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">championshipName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#bodyweight categories or each age group (bodyweight category code followed by optional qualifying total, example: 45 80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MASTERS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IWF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFAULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M85</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
+  </numFmts>
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -221,60 +235,120 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="16">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -333,78 +407,62 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -434,7 +492,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -458,7 +516,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -518,30 +576,31 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -563,24 +622,24 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-    </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -593,52 +652,52 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="F2" s="5">
-        <v>15</v>
-      </c>
-      <c r="G2" s="6" t="b">
-        <f>TRUE()</f>
+      <c r="F2" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" s="7" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="2">
+      <c r="I2" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L2" s="2">
-        <v>55</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="L2" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M2" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="Q2" s="2">
-        <v>81</v>
-      </c>
-      <c r="R2" s="2">
+      <c r="Q2" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="R2" s="2" t="n">
         <v>999</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -651,52 +710,52 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G3" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="2">
+      <c r="I3" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L3" s="2">
-        <v>55</v>
-      </c>
-      <c r="M3" s="2">
+      <c r="L3" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M3" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="Q3" s="2">
-        <v>81</v>
-      </c>
-      <c r="R3" s="2">
+      <c r="Q3" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="R3" s="2" t="n">
         <v>999</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -709,110 +768,110 @@
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="b">
-        <f>TRUE()</f>
+      <c r="G4" s="7" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2">
+      <c r="I4" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L4" s="2">
-        <v>55</v>
-      </c>
-      <c r="M4" s="2">
+      <c r="L4" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M4" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="Q4" s="2">
-        <v>81</v>
-      </c>
-      <c r="R4" s="2">
+      <c r="Q4" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="R4" s="2" t="n">
         <v>999</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="7" t="s">
+    <row r="5" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="G5" s="9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7">
+      <c r="G5" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8" t="n">
         <v>49</v>
       </c>
-      <c r="L5" s="7">
-        <v>55</v>
-      </c>
-      <c r="M5" s="7">
+      <c r="L5" s="8" t="n">
+        <v>55</v>
+      </c>
+      <c r="M5" s="8" t="n">
         <v>59</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="8" t="n">
         <v>64</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="8" t="n">
         <v>71</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="8" t="n">
         <v>76</v>
       </c>
-      <c r="Q5" s="7">
-        <v>81</v>
-      </c>
-      <c r="R5" s="7">
-        <v>999</v>
-      </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1">
+      <c r="Q5" s="8" t="n">
+        <v>81</v>
+      </c>
+      <c r="R5" s="8" t="n">
+        <v>999</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -825,52 +884,52 @@
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="G6" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G6" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2">
+      <c r="J6" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L6" s="2">
-        <v>55</v>
-      </c>
-      <c r="M6" s="2">
+      <c r="L6" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M6" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="Q6" s="2">
-        <v>81</v>
-      </c>
-      <c r="R6" s="2">
+      <c r="Q6" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="R6" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="2" t="n">
         <v>999</v>
       </c>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -883,52 +942,52 @@
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="G7" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G7" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2">
+      <c r="J7" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L7" s="2">
-        <v>55</v>
-      </c>
-      <c r="M7" s="2">
+      <c r="L7" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M7" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="Q7" s="2">
-        <v>81</v>
-      </c>
-      <c r="R7" s="2">
+      <c r="Q7" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="R7" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="2" t="n">
         <v>999</v>
       </c>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -941,52 +1000,52 @@
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="G8" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G8" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2">
+      <c r="J8" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L8" s="2">
-        <v>55</v>
-      </c>
-      <c r="M8" s="2">
+      <c r="L8" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M8" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="Q8" s="2">
-        <v>81</v>
-      </c>
-      <c r="R8" s="2">
+      <c r="Q8" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="R8" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="2" t="n">
         <v>999</v>
       </c>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -999,52 +1058,52 @@
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="G9" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G9" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2">
+      <c r="J9" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L9" s="2">
-        <v>55</v>
-      </c>
-      <c r="M9" s="2">
+      <c r="L9" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M9" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="Q9" s="2">
-        <v>81</v>
-      </c>
-      <c r="R9" s="2">
+      <c r="Q9" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="R9" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="2" t="n">
         <v>999</v>
       </c>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1057,52 +1116,52 @@
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5">
-        <v>55</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="E10" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="F10" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="G10" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G10" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2">
+      <c r="J10" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L10" s="2">
-        <v>55</v>
-      </c>
-      <c r="M10" s="2">
+      <c r="L10" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M10" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="Q10" s="2">
-        <v>81</v>
-      </c>
-      <c r="R10" s="2">
+      <c r="Q10" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="R10" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="2" t="n">
         <v>999</v>
       </c>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1115,52 +1174,52 @@
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="G11" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G11" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2">
+      <c r="J11" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L11" s="2">
-        <v>55</v>
-      </c>
-      <c r="M11" s="2">
+      <c r="L11" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M11" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="Q11" s="2">
-        <v>81</v>
-      </c>
-      <c r="R11" s="2">
+      <c r="Q11" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="R11" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="2" t="n">
         <v>999</v>
       </c>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1173,52 +1232,52 @@
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="G12" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G12" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2">
+      <c r="J12" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L12" s="2">
-        <v>55</v>
-      </c>
-      <c r="M12" s="2">
+      <c r="L12" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M12" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="Q12" s="2">
-        <v>81</v>
-      </c>
-      <c r="R12" s="2">
+      <c r="Q12" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="R12" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="2" t="n">
         <v>999</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1231,52 +1290,52 @@
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="G13" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G13" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2">
+      <c r="J13" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L13" s="2">
-        <v>55</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="L13" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M13" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="Q13" s="2">
-        <v>81</v>
-      </c>
-      <c r="R13" s="2">
+      <c r="Q13" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="R13" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="2" t="n">
         <v>999</v>
       </c>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1289,52 +1348,52 @@
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6" t="n">
         <v>79</v>
       </c>
-      <c r="G14" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G14" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2">
+      <c r="J14" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L14" s="2">
-        <v>55</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="L14" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M14" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="Q14" s="2">
-        <v>81</v>
-      </c>
-      <c r="R14" s="2">
+      <c r="Q14" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="R14" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="2" t="n">
         <v>999</v>
       </c>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1347,110 +1406,110 @@
       <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="G15" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G15" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2">
+      <c r="J15" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L15" s="2">
-        <v>55</v>
-      </c>
-      <c r="M15" s="2">
+      <c r="L15" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M15" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="Q15" s="2">
-        <v>81</v>
-      </c>
-      <c r="R15" s="2">
+      <c r="Q15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="R15" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="2" t="n">
         <v>999</v>
       </c>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A16" s="11" t="s">
+    <row r="16" s="15" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="B16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="13" t="n">
         <v>85</v>
       </c>
-      <c r="F16" s="12">
-        <v>999</v>
-      </c>
-      <c r="G16" s="13" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11">
+      <c r="F16" s="13" t="n">
+        <v>999</v>
+      </c>
+      <c r="G16" s="14" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12" t="n">
         <v>45</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="12" t="n">
         <v>49</v>
       </c>
-      <c r="L16" s="11">
-        <v>55</v>
-      </c>
-      <c r="M16" s="11">
+      <c r="L16" s="12" t="n">
+        <v>55</v>
+      </c>
+      <c r="M16" s="12" t="n">
         <v>59</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="12" t="n">
         <v>64</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="12" t="n">
         <v>71</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="12" t="n">
         <v>76</v>
       </c>
-      <c r="Q16" s="11">
-        <v>81</v>
-      </c>
-      <c r="R16" s="11">
+      <c r="Q16" s="12" t="n">
+        <v>81</v>
+      </c>
+      <c r="R16" s="12" t="n">
         <v>87</v>
       </c>
-      <c r="S16" s="11">
-        <v>999</v>
-      </c>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1">
+      <c r="S16" s="12" t="n">
+        <v>999</v>
+      </c>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1458,235 +1517,235 @@
         <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="G17" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G17" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="2">
+      <c r="I17" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L17" s="2">
-        <v>55</v>
-      </c>
-      <c r="M17" s="2">
+      <c r="L17" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M17" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="Q17" s="2">
-        <v>81</v>
-      </c>
-      <c r="R17" s="2">
+      <c r="Q17" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="R17" s="2" t="n">
         <v>999</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="5">
-        <v>15</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="E18" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F18" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="G18" s="6" t="b">
-        <f>TRUE()</f>
+      <c r="G18" s="7" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2">
+      <c r="J18" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L18" s="2">
-        <v>55</v>
-      </c>
-      <c r="M18" s="2">
+      <c r="L18" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M18" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="Q18" s="2">
-        <v>81</v>
-      </c>
-      <c r="R18" s="2">
+      <c r="Q18" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="R18" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="2" t="n">
         <v>999</v>
       </c>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="5">
-        <v>15</v>
-      </c>
-      <c r="F19" s="5">
-        <v>999</v>
-      </c>
-      <c r="G19" s="6" t="b">
-        <f>TRUE()</f>
+      <c r="E19" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>999</v>
+      </c>
+      <c r="G19" s="7" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2">
+      <c r="J19" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L19" s="2">
-        <v>55</v>
-      </c>
-      <c r="M19" s="2">
+      <c r="L19" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M19" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="Q19" s="2">
-        <v>81</v>
-      </c>
-      <c r="R19" s="2">
+      <c r="Q19" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="R19" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="2" t="n">
         <v>999</v>
       </c>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" s="10" customFormat="1" ht="15">
-      <c r="A20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="7" t="s">
+    <row r="20" s="11" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>999</v>
-      </c>
-      <c r="G20" s="9" t="b">
-        <f>TRUE()</f>
+      <c r="E20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>999</v>
+      </c>
+      <c r="G20" s="10" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="8" t="n">
         <v>40</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="8" t="n">
         <v>45</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="8" t="n">
         <v>49</v>
       </c>
-      <c r="L20" s="7">
-        <v>55</v>
-      </c>
-      <c r="M20" s="7">
+      <c r="L20" s="8" t="n">
+        <v>55</v>
+      </c>
+      <c r="M20" s="8" t="n">
         <v>59</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="8" t="n">
         <v>64</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="8" t="n">
         <v>71</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="8" t="n">
         <v>76</v>
       </c>
-      <c r="Q20" s="7">
-        <v>81</v>
-      </c>
-      <c r="R20" s="7">
+      <c r="Q20" s="8" t="n">
+        <v>81</v>
+      </c>
+      <c r="R20" s="8" t="n">
         <v>87</v>
       </c>
-      <c r="S20" s="7">
-        <v>999</v>
-      </c>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-    </row>
-    <row r="21" spans="1:21" ht="15">
+      <c r="S20" s="8" t="n">
+        <v>999</v>
+      </c>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>8</v>
       </c>
@@ -1697,54 +1756,54 @@
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="5">
+        <v>32</v>
+      </c>
+      <c r="E21" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="F21" s="5">
-        <v>15</v>
-      </c>
-      <c r="G21" s="6" t="b">
-        <f>TRUE()</f>
+      <c r="F21" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" s="7" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2">
+      <c r="K21" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L21" s="2">
-        <v>55</v>
-      </c>
-      <c r="M21" s="2">
+      <c r="L21" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M21" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N21" s="2">
+      <c r="N21" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P21" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q21" s="2">
+      <c r="P21" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q21" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21" s="2" t="n">
         <v>999</v>
       </c>
       <c r="U21" s="2"/>
     </row>
-    <row r="22" spans="1:21" ht="15">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1755,54 +1814,54 @@
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="5">
+        <v>32</v>
+      </c>
+      <c r="E22" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="G22" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G22" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2">
+      <c r="K22" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L22" s="2">
-        <v>55</v>
-      </c>
-      <c r="M22" s="2">
+      <c r="L22" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M22" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N22" s="2">
+      <c r="N22" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P22" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q22" s="2">
+      <c r="P22" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q22" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22" s="2" t="n">
         <v>999</v>
       </c>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" ht="15">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -1813,172 +1872,172 @@
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="5">
+        <v>32</v>
+      </c>
+      <c r="E23" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="G23" s="6" t="b">
-        <f>TRUE()</f>
+      <c r="G23" s="7" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2">
+      <c r="K23" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L23" s="2">
-        <v>55</v>
-      </c>
-      <c r="M23" s="2">
+      <c r="L23" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M23" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N23" s="2">
+      <c r="N23" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P23" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q23" s="2">
+      <c r="P23" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q23" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R23" s="2">
+      <c r="R23" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T23" s="2" t="n">
         <v>999</v>
       </c>
       <c r="U23" s="2"/>
     </row>
-    <row r="24" spans="1:21" s="10" customFormat="1" ht="15">
-      <c r="A24" s="7" t="s">
+    <row r="24" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="8">
+      <c r="D24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="G24" s="9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7">
+      <c r="G24" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8" t="n">
         <v>49</v>
       </c>
-      <c r="L24" s="7">
-        <v>55</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="L24" s="8" t="n">
+        <v>55</v>
+      </c>
+      <c r="M24" s="8" t="n">
         <v>61</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="8" t="n">
         <v>67</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="P24" s="7">
-        <v>81</v>
-      </c>
-      <c r="Q24" s="7">
+      <c r="P24" s="8" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="8" t="n">
         <v>89</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="8" t="n">
         <v>96</v>
       </c>
-      <c r="S24" s="7">
+      <c r="S24" s="8" t="n">
         <v>102</v>
       </c>
-      <c r="T24" s="7">
-        <v>999</v>
-      </c>
-      <c r="U24" s="7"/>
-    </row>
-    <row r="25" spans="1:21" ht="15">
+      <c r="T24" s="8" t="n">
+        <v>999</v>
+      </c>
+      <c r="U24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="E25" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="G25" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G25" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2">
-        <v>55</v>
-      </c>
-      <c r="M25" s="2">
+      <c r="L25" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M25" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N25" s="2">
+      <c r="N25" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P25" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q25" s="2">
+      <c r="P25" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q25" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R25" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="U25" s="2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15">
+      <c r="U25" s="2" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>15</v>
@@ -1987,56 +2046,56 @@
         <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="5">
+        <v>32</v>
+      </c>
+      <c r="E26" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="G26" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G26" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2">
-        <v>55</v>
-      </c>
-      <c r="M26" s="2">
+      <c r="L26" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M26" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P26" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q26" s="2">
+      <c r="P26" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q26" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T26" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="U26" s="2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15">
+      <c r="U26" s="2" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>15</v>
@@ -2045,56 +2104,56 @@
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="5">
+        <v>32</v>
+      </c>
+      <c r="E27" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="G27" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G27" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2">
-        <v>55</v>
-      </c>
-      <c r="M27" s="2">
+      <c r="L27" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M27" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P27" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q27" s="2">
+      <c r="P27" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q27" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R27" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S27" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T27" s="2">
+      <c r="T27" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="U27" s="2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15">
+      <c r="U27" s="2" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>15</v>
@@ -2103,56 +2162,56 @@
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="5">
+        <v>32</v>
+      </c>
+      <c r="E28" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="G28" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G28" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2">
-        <v>55</v>
-      </c>
-      <c r="M28" s="2">
+      <c r="L28" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M28" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P28" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q28" s="2">
+      <c r="P28" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S28" s="2">
+      <c r="S28" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T28" s="2">
+      <c r="T28" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="U28" s="2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15">
+      <c r="U28" s="2" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>15</v>
@@ -2161,56 +2220,56 @@
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="5">
-        <v>55</v>
-      </c>
-      <c r="F29" s="5">
+        <v>32</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="F29" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="G29" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G29" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2">
-        <v>55</v>
-      </c>
-      <c r="M29" s="2">
+      <c r="L29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M29" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P29" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q29" s="2">
+      <c r="P29" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q29" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R29" s="2">
+      <c r="R29" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S29" s="2">
+      <c r="S29" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T29" s="2">
+      <c r="T29" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="U29" s="2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="15">
+      <c r="U29" s="2" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>15</v>
@@ -2219,56 +2278,56 @@
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="5">
+        <v>32</v>
+      </c>
+      <c r="E30" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="G30" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G30" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2">
-        <v>55</v>
-      </c>
-      <c r="M30" s="2">
+      <c r="L30" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M30" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P30" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q30" s="2">
+      <c r="P30" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q30" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R30" s="2">
+      <c r="R30" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S30" s="2">
+      <c r="S30" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T30" s="2">
+      <c r="T30" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="U30" s="2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15">
+      <c r="U30" s="2" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>15</v>
@@ -2277,56 +2336,56 @@
         <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="5">
+        <v>32</v>
+      </c>
+      <c r="E31" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="G31" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G31" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2">
-        <v>55</v>
-      </c>
-      <c r="M31" s="2">
+      <c r="L31" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M31" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N31" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O31" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P31" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q31" s="2">
+      <c r="P31" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q31" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R31" s="2">
+      <c r="R31" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S31" s="2">
+      <c r="S31" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T31" s="2">
+      <c r="T31" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="U31" s="2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="15">
+      <c r="U31" s="2" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>15</v>
@@ -2335,56 +2394,56 @@
         <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="5">
+        <v>32</v>
+      </c>
+      <c r="E32" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="G32" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G32" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2">
-        <v>55</v>
-      </c>
-      <c r="M32" s="2">
+      <c r="L32" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M32" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N32" s="2">
+      <c r="N32" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O32" s="2">
+      <c r="O32" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P32" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q32" s="2">
+      <c r="P32" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q32" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R32" s="2">
+      <c r="R32" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S32" s="2">
+      <c r="S32" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T32" s="2">
+      <c r="T32" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="U32" s="2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="15">
+      <c r="U32" s="2" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>15</v>
@@ -2393,56 +2452,56 @@
         <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="5">
+        <v>32</v>
+      </c>
+      <c r="E33" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="6" t="n">
         <v>79</v>
       </c>
-      <c r="G33" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G33" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2">
-        <v>55</v>
-      </c>
-      <c r="M33" s="2">
+      <c r="L33" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M33" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P33" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q33" s="2">
+      <c r="P33" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q33" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R33" s="2">
+      <c r="R33" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S33" s="2">
+      <c r="S33" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T33" s="2">
+      <c r="T33" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="U33" s="2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15">
+      <c r="U33" s="2" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>15</v>
@@ -2451,112 +2510,112 @@
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="5">
+        <v>32</v>
+      </c>
+      <c r="E34" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="G34" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G34" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2">
-        <v>55</v>
-      </c>
-      <c r="M34" s="2">
+      <c r="L34" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M34" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N34" s="2">
+      <c r="N34" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P34" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q34" s="2">
+      <c r="P34" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q34" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R34" s="2">
+      <c r="R34" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S34" s="2">
+      <c r="S34" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T34" s="2">
+      <c r="T34" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="U34" s="2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" s="10" customFormat="1" ht="15">
-      <c r="A35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="8">
+      <c r="U34" s="2" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="35" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="9" t="n">
         <v>85</v>
       </c>
-      <c r="F35" s="8">
-        <v>999</v>
-      </c>
-      <c r="G35" s="9" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7">
-        <v>55</v>
-      </c>
-      <c r="M35" s="7">
+      <c r="F35" s="9" t="n">
+        <v>999</v>
+      </c>
+      <c r="G35" s="10" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8" t="n">
+        <v>55</v>
+      </c>
+      <c r="M35" s="8" t="n">
         <v>61</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="8" t="n">
         <v>67</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="8" t="n">
         <v>73</v>
       </c>
-      <c r="P35" s="7">
-        <v>81</v>
-      </c>
-      <c r="Q35" s="7">
+      <c r="P35" s="8" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q35" s="8" t="n">
         <v>89</v>
       </c>
-      <c r="R35" s="7">
+      <c r="R35" s="8" t="n">
         <v>96</v>
       </c>
-      <c r="S35" s="7">
+      <c r="S35" s="8" t="n">
         <v>102</v>
       </c>
-      <c r="T35" s="7">
+      <c r="T35" s="8" t="n">
         <v>109</v>
       </c>
-      <c r="U35" s="7">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="15">
+      <c r="U35" s="8" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
@@ -2564,235 +2623,235 @@
         <v>26</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="5">
+        <v>32</v>
+      </c>
+      <c r="E36" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="G36" s="6" t="b">
-        <f>FALSE()</f>
+      <c r="G36" s="7" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="2">
+      <c r="K36" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L36" s="2">
-        <v>55</v>
-      </c>
-      <c r="M36" s="2">
+      <c r="L36" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M36" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N36" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P36" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q36" s="2">
+      <c r="P36" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q36" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R36" s="2">
+      <c r="R36" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S36" s="2">
+      <c r="S36" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T36" s="2">
+      <c r="T36" s="2" t="n">
         <v>999</v>
       </c>
       <c r="U36" s="2"/>
     </row>
-    <row r="37" spans="1:21" ht="15">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="5">
-        <v>15</v>
-      </c>
-      <c r="F37" s="5">
+        <v>32</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F37" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="G37" s="6" t="b">
-        <f>TRUE()</f>
+      <c r="G37" s="7" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2">
-        <v>55</v>
-      </c>
-      <c r="M37" s="2">
+      <c r="L37" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M37" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P37" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q37" s="2">
+      <c r="P37" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q37" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R37" s="2">
+      <c r="R37" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T37" s="2">
+      <c r="T37" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="U37" s="2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="15">
+      <c r="U37" s="2" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="5">
-        <v>15</v>
-      </c>
-      <c r="F38" s="5">
-        <v>999</v>
-      </c>
-      <c r="G38" s="6" t="b">
-        <f>TRUE()</f>
+        <v>32</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F38" s="6" t="n">
+        <v>999</v>
+      </c>
+      <c r="G38" s="7" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2">
-        <v>55</v>
-      </c>
-      <c r="M38" s="2">
+      <c r="L38" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M38" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P38" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q38" s="2">
+      <c r="P38" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q38" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R38" s="2">
+      <c r="R38" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T38" s="2">
+      <c r="T38" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="U38" s="2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="15">
+      <c r="U38" s="2" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="5">
-        <v>0</v>
-      </c>
-      <c r="F39" s="5">
-        <v>999</v>
-      </c>
-      <c r="G39" s="6" t="b">
-        <f>TRUE()</f>
+        <v>32</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="6" t="n">
+        <v>999</v>
+      </c>
+      <c r="G39" s="7" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L39" s="2">
-        <v>55</v>
-      </c>
-      <c r="M39" s="2">
+      <c r="L39" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="M39" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="N39" s="2">
+      <c r="N39" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="P39" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q39" s="2">
+      <c r="P39" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="Q39" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="R39" s="2">
+      <c r="R39" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="S39" s="2">
+      <c r="S39" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="T39" s="2">
+      <c r="T39" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="U39" s="2">
+      <c r="U39" s="2" t="n">
         <v>999</v>
       </c>
     </row>
@@ -2800,7 +2859,12 @@
   <mergeCells count="1">
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>